--- a/biology/Histoire de la zoologie et de la botanique/George_Francis_Atkinson/George_Francis_Atkinson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Francis_Atkinson/George_Francis_Atkinson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Francis Atkinson est un botaniste américain, né le 26 janvier 1854 à Raisinville dans le Michigan et mort le 14 novembre 1918.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Joseph Atkinson et de Josephine née Fish. Il étudie à l’Olivet College de 1878 à 1883 et obtient son Bachelor of Philosophy à l’université Cornell en 1885. Il est professeur-assistant d’entomologie et de zoologie de 1885 à 1886 puis professeur-associé de 1886 à 1888 à l’université de la Caroline du Nord.
 Il est professeur de botanique et de zoologie à l’université de Caroline du Sud de 1888 à 1889 et est botaniste au sein de la Station expérimentale de l’université. De 1889 à 1892, il enseigne la biologie à l’Institut polytechnique de l’Alabama, de 1892 à 1893, il est professeur-assistant de cryptogamie à l’université Cornell, de 1893 à 1896, professeur associé, enfin, à partir de 1896, il y dirige le département de botanique. Il est le premier président de la Botanical Society of America de 1905 à 1907.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elementary botany (H. Holt and company, New York, 1898 – réédition enrichie en 1905).
 Lessons in botany (H. Holt and company, New York, 1900).
